--- a/Lektion 3/edgelist.xlsx
+++ b/Lektion 3/edgelist.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au706395_uni_au_dk/Documents/R/SocialNetwork/Lektion 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{95B15088-BB67-3C4F-AA1A-5CB13488D1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81A0065D-419B-1F42-B1C8-AF440BA6E00C}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{95B15088-BB67-3C4F-AA1A-5CB13488D1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BDCD81B-07F7-6748-AA84-3AE3BB61D343}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="660" windowWidth="33280" windowHeight="18400" xr2:uid="{0B0CC6D8-EF7A-6A4E-A745-2044E0E42A45}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -94,6 +94,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CBD22D-BF91-2A48-B8B6-14D7C3C6A449}">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,7 +439,7 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,35)</f>
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -443,8 +447,8 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(1,35)</f>
-        <v>1</v>
+        <f t="shared" ref="B3:B50" ca="1" si="0">RANDBETWEEN(1,35)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -453,7 +457,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -462,7 +466,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -471,7 +475,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -480,7 +484,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -489,7 +493,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -498,7 +502,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -507,7 +511,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -516,7 +520,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -525,7 +529,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -534,7 +538,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -543,7 +547,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -552,7 +556,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -561,7 +565,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -579,7 +583,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -588,7 +592,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -597,7 +601,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -606,7 +610,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -615,7 +619,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -624,7 +628,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -633,7 +637,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -642,7 +646,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -651,7 +655,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -660,7 +664,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -678,7 +682,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -687,7 +691,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -696,7 +700,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -714,7 +718,7 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -723,7 +727,7 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -732,7 +736,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -746,632 +750,142 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,35)</f>
+        <v>21</v>
       </c>
       <c r="B37">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(1,35)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2</v>
+        <f t="shared" ref="A38:A50" ca="1" si="1">RANDBETWEEN(1,35)</f>
+        <v>21</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>23</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
-      </c>
-      <c r="B44">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>14</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>15</v>
-      </c>
-      <c r="B51">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>16</v>
-      </c>
-      <c r="B52">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>17</v>
-      </c>
-      <c r="B53">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>18</v>
-      </c>
-      <c r="B54">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>19</v>
-      </c>
-      <c r="B55">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>20</v>
-      </c>
-      <c r="B56">
-        <f t="shared" ca="1" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>21</v>
-      </c>
-      <c r="B57">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>22</v>
-      </c>
-      <c r="B58">
-        <f t="shared" ca="1" si="0"/>
         <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>23</v>
-      </c>
-      <c r="B59">
-        <f t="shared" ca="1" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>24</v>
-      </c>
-      <c r="B60">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>25</v>
-      </c>
-      <c r="B61">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>26</v>
-      </c>
-      <c r="B62">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>27</v>
-      </c>
-      <c r="B63">
-        <f t="shared" ca="1" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>28</v>
-      </c>
-      <c r="B64">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>29</v>
-      </c>
-      <c r="B65">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>30</v>
-      </c>
-      <c r="B66">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>31</v>
-      </c>
-      <c r="B67">
-        <f t="shared" ref="B67:B106" ca="1" si="1">RANDBETWEEN(1,35)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>32</v>
-      </c>
-      <c r="B68">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>33</v>
-      </c>
-      <c r="B69">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>34</v>
-      </c>
-      <c r="B70">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>35</v>
-      </c>
-      <c r="B71">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>2</v>
-      </c>
-      <c r="B73">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>3</v>
-      </c>
-      <c r="B74">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>4</v>
-      </c>
-      <c r="B75">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>5</v>
-      </c>
-      <c r="B76">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>6</v>
-      </c>
-      <c r="B77">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>7</v>
-      </c>
-      <c r="B78">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>8</v>
-      </c>
-      <c r="B79">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>9</v>
-      </c>
-      <c r="B80">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>10</v>
-      </c>
-      <c r="B81">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>11</v>
-      </c>
-      <c r="B82">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>12</v>
-      </c>
-      <c r="B83">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>13</v>
-      </c>
-      <c r="B84">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>14</v>
-      </c>
-      <c r="B85">
-        <f t="shared" ca="1" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>15</v>
-      </c>
-      <c r="B86">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>16</v>
-      </c>
-      <c r="B87">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>17</v>
-      </c>
-      <c r="B88">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>18</v>
-      </c>
-      <c r="B89">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>19</v>
-      </c>
-      <c r="B90">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>20</v>
-      </c>
-      <c r="B91">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>21</v>
-      </c>
-      <c r="B92">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>22</v>
-      </c>
-      <c r="B93">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>23</v>
-      </c>
-      <c r="B94">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>24</v>
-      </c>
-      <c r="B95">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>25</v>
-      </c>
-      <c r="B96">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>26</v>
-      </c>
-      <c r="B97">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>27</v>
-      </c>
-      <c r="B98">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>28</v>
-      </c>
-      <c r="B99">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>29</v>
-      </c>
-      <c r="B100">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>30</v>
-      </c>
-      <c r="B101">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>31</v>
-      </c>
-      <c r="B102">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>32</v>
-      </c>
-      <c r="B103">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>33</v>
-      </c>
-      <c r="B104">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>34</v>
-      </c>
-      <c r="B105">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>35</v>
-      </c>
-      <c r="B106">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
       </c>
     </row>
   </sheetData>
